--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -520,6 +520,9 @@
       <c r="C11" t="str">
         <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -581,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010100</v>
+        <v>0202035101010101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,9 +524,87 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>433_红豆_Hypericum red_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>434_绿豆_Hypericum green_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>527_白豆_Hypericum white_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +662,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202035101010101010</v>
+        <v>0202035101010101010101022220105100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -601,6 +601,9 @@
       <c r="C21" t="str">
         <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -662,7 +665,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202035101010101010101022220105100</v>
+        <v>02020351010101010101010222201051010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -501,6 +501,9 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>2</v>
+      </c>
       <c r="C9" t="str">
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
@@ -590,6 +593,9 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v>3</v>
+      </c>
       <c r="C20" t="str">
         <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
       </c>
@@ -605,9 +611,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4</v>
+      </c>
+      <c r="C28" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>396_米花 白_rice flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -665,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020351010101010101010222201051010</v>
+        <v>020203510101010101010102222010510106355310301500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -690,6 +690,9 @@
       <c r="C31" t="str">
         <v>396_米花 白_rice flower white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -751,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010101010102222010510106355310301500</v>
+        <v>020203510101010101010102222010510106355310301501</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -691,7 +691,7 @@
         <v>396_米花 白_rice flower white_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010101010102222010510106355310301501</v>
+        <v>0202035101010101010101022220105101063553103015010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,9 +694,65 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>465_羽衣甘蓝_Brassica_Brassica oleracea var. acephala DC._1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L38"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -754,7 +810,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202035101010101010101022220105101063553103015010</v>
+        <v>02020351010101010101010222201051010635531030150101535100151015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-11-16.xlsx
@@ -812,6 +812,9 @@
       <c r="G2" t="str">
         <v>02020351010101010101010222201051010635531030150101535100151015</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
